--- a/Documentation/aanwezigheid.xlsx
+++ b/Documentation/aanwezigheid.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Wouter</t>
   </si>
@@ -38,7 +38,22 @@
     <t>Vera</t>
   </si>
   <si>
-    <t>x</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>g = geoorloofd afwezig</t>
+  </si>
+  <si>
+    <t>a = aanwezig</t>
+  </si>
+  <si>
+    <t>gt = geoorloofd te laat</t>
+  </si>
+  <si>
+    <t>t = te laat</t>
+  </si>
+  <si>
+    <t>oa = ongeoorloofd afwezig</t>
   </si>
 </sst>
 </file>
@@ -391,49 +406,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995770AE-60AB-4B4B-84A6-07C1C40B0BE1}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
+        <v>43137</v>
+      </c>
+      <c r="C1" s="1">
         <v>43139</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" s="1">
+        <v>43140</v>
+      </c>
+      <c r="E1" s="1">
+        <v>43144</v>
+      </c>
+      <c r="F1" s="1">
+        <v>43146</v>
+      </c>
+      <c r="G1" s="1">
+        <v>43147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
